--- a/게임 기획파일/시스템 기획 수치 비교.xlsx
+++ b/게임 기획파일/시스템 기획 수치 비교.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\나만의 삼\TeamProject1\게임 기획파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B187258D-DAC2-422C-BFBE-06BFEBD1F799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6863E-A15C-484D-8A29-D78DB025C606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="285" windowWidth="20445" windowHeight="13920" activeTab="3" xr2:uid="{1C48967E-3037-41A9-A86A-162A6F14A228}"/>
+    <workbookView xWindow="13185" yWindow="810" windowWidth="14580" windowHeight="9945" activeTab="3" xr2:uid="{1C48967E-3037-41A9-A86A-162A6F14A228}"/>
   </bookViews>
   <sheets>
     <sheet name="무기 공격력" sheetId="1" r:id="rId1"/>
@@ -2109,7 +2109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
   <si>
     <t>UID</t>
   </si>
@@ -2606,6 +2606,58 @@
   <si>
     <t>164926744166500</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초 기준</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>258280326</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>23245229340</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>78452649020</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1412147682420</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>15886661427100</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>61004779879800</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>366028679278800</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>75767339628390000</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>9265100944259000000</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>136481514113340000000</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>62539431373750000000000</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2619,7 +2671,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2716,6 +2768,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2775,7 +2840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2850,6 +2915,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4288,7 +4380,7 @@
         <v>2300</v>
       </c>
       <c r="O3" s="24">
-        <f t="shared" ref="H3:O3" si="0">N3+$E$3</f>
+        <f t="shared" ref="O3" si="0">N3+$E$3</f>
         <v>2500</v>
       </c>
     </row>
@@ -5337,7 +5429,7 @@
         <v>12800</v>
       </c>
       <c r="F31" s="20">
-        <f t="shared" ref="F31:F46" si="18">O30+E31</f>
+        <f t="shared" ref="F31:F41" si="18">O30+E31</f>
         <v>12800</v>
       </c>
       <c r="G31" s="20">
@@ -6013,10 +6105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F9BE2A-5F86-42C1-AA1A-DF35C1A7412E}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6571,7 +6663,10 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="33">
+        <f>E23*26</f>
+        <v>4288095348329000</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
@@ -6590,6 +6685,9 @@
       <c r="E26" s="19">
         <v>3.0018927059399821E+17</v>
       </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6601,10 +6699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B6786-EAED-4087-8B2F-B563384DDD38}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6617,8 +6715,10 @@
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6648,6 +6748,9 @@
       <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -6678,8 +6781,11 @@
       <c r="J2">
         <v>6</v>
       </c>
-      <c r="L2">
-        <v>6</v>
+      <c r="L2" s="27">
+        <v>2</v>
+      </c>
+      <c r="M2" s="28">
+        <v>2</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -6717,8 +6823,11 @@
       <c r="J3">
         <v>72</v>
       </c>
-      <c r="L3">
-        <v>36</v>
+      <c r="L3" s="27">
+        <v>9</v>
+      </c>
+      <c r="M3" s="28">
+        <v>18</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -6757,8 +6866,11 @@
       <c r="J4">
         <v>504</v>
       </c>
-      <c r="L4">
-        <v>252</v>
+      <c r="L4" s="27">
+        <v>32.4</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>163</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -6797,8 +6909,11 @@
       <c r="J5" s="17">
         <v>4080</v>
       </c>
-      <c r="L5" s="17">
-        <v>2040</v>
+      <c r="L5" s="27">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="M5" s="28">
+        <v>1458</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -6837,8 +6952,11 @@
       <c r="J6" s="17">
         <v>40000</v>
       </c>
-      <c r="L6" s="17">
-        <v>10000</v>
+      <c r="L6" s="27">
+        <v>656.1</v>
+      </c>
+      <c r="M6" s="28">
+        <v>13122</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -6877,8 +6995,11 @@
       <c r="J7" s="17">
         <v>400000</v>
       </c>
-      <c r="L7" s="17">
-        <v>80000</v>
+      <c r="L7" s="27">
+        <v>2952.45</v>
+      </c>
+      <c r="M7" s="28">
+        <v>118098</v>
       </c>
       <c r="N7">
         <v>6</v>
@@ -6917,8 +7038,11 @@
       <c r="J8" s="17">
         <v>4000000</v>
       </c>
-      <c r="L8" s="17">
-        <v>800000</v>
+      <c r="L8" s="27">
+        <v>17714.7</v>
+      </c>
+      <c r="M8" s="28">
+        <v>1062882</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -6957,8 +7081,11 @@
       <c r="J9" s="17">
         <v>4800000</v>
       </c>
-      <c r="L9" s="17">
-        <v>2400000</v>
+      <c r="L9" s="27">
+        <v>79716</v>
+      </c>
+      <c r="M9" s="28">
+        <v>9565938</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -6997,8 +7124,11 @@
       <c r="J10" s="17">
         <v>63000000</v>
       </c>
-      <c r="L10" s="17">
-        <v>31500000</v>
+      <c r="L10" s="27">
+        <v>358722.67499999999</v>
+      </c>
+      <c r="M10" s="28">
+        <v>86093442</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -7037,8 +7167,11 @@
       <c r="J11" s="17">
         <v>86000000</v>
       </c>
-      <c r="L11" s="17">
-        <v>43000000</v>
+      <c r="L11" s="27">
+        <v>8609344.1999999993</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="N11">
         <v>10</v>
@@ -7077,8 +7210,11 @@
       <c r="J12" s="17">
         <v>1300000000</v>
       </c>
-      <c r="L12" s="17">
-        <v>650000000</v>
+      <c r="L12" s="27">
+        <v>48427561.125</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="N12">
         <v>11</v>
@@ -7117,8 +7253,11 @@
       <c r="J13" s="17">
         <v>12000000000</v>
       </c>
-      <c r="L13" s="17">
-        <v>6000000000</v>
+      <c r="L13" s="27">
+        <v>3922632451</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="N13">
         <v>12</v>
@@ -7158,8 +7297,11 @@
         <f t="shared" ref="J14:J21" si="2">E14/D14</f>
         <v>366666666666.66669</v>
       </c>
-      <c r="L14" s="17">
-        <v>18300000000</v>
+      <c r="L14" s="27">
+        <v>40347076640.571404</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="N14">
         <v>13</v>
@@ -7199,8 +7341,11 @@
         <f t="shared" si="2"/>
         <v>6388888888888.8887</v>
       </c>
-      <c r="L15" s="17">
-        <v>320000000000</v>
+      <c r="L15" s="27">
+        <v>529555380903.33301</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -7240,8 +7385,11 @@
         <f t="shared" si="2"/>
         <v>225000000000000</v>
       </c>
-      <c r="L16" s="17">
-        <v>1125000000000</v>
+      <c r="L16" s="27">
+        <v>6100477987980</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -7281,8 +7429,11 @@
         <f t="shared" si="2"/>
         <v>1400000000000000</v>
       </c>
-      <c r="L17" s="17">
-        <v>70000000000000</v>
+      <c r="L17" s="27">
+        <v>7320573585576</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>170</v>
       </c>
       <c r="N17">
         <v>16</v>
@@ -7322,8 +7473,11 @@
         <f t="shared" si="2"/>
         <v>5E+17</v>
       </c>
-      <c r="L18" s="17">
-        <v>250000000000000</v>
+      <c r="L18" s="27">
+        <v>151534679256780</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>171</v>
       </c>
       <c r="N18">
         <v>17</v>
@@ -7363,8 +7517,15 @@
         <f t="shared" si="2"/>
         <v>2.2666666666666668E+19</v>
       </c>
-      <c r="L19" s="17">
-        <v>1150000000000000</v>
+      <c r="K19" s="26">
+        <f>M19/100</f>
+        <v>9.265100944259E+16</v>
+      </c>
+      <c r="L19" s="27">
+        <v>9.2651E+16</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="N19">
         <v>18</v>
@@ -7404,8 +7565,11 @@
         <f t="shared" si="2"/>
         <v>2.5833333333333331E+20</v>
       </c>
-      <c r="L20" s="17">
-        <v>1.29E+16</v>
+      <c r="L20" s="27">
+        <v>6.8240757056670003E+17</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>173</v>
       </c>
       <c r="N20">
         <v>19</v>
@@ -7445,8 +7609,14 @@
         <f t="shared" si="2"/>
         <v>1.86E+22</v>
       </c>
-      <c r="L21" s="17">
-        <v>9.3E+17</v>
+      <c r="K21" s="18">
+        <v>6.25394313737499E+21</v>
+      </c>
+      <c r="L21" s="27">
+        <v>2.0846477124583301E+19</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="N21">
         <v>20</v>
@@ -7456,9 +7626,52 @@
         <v>2.701703435345984E+18</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K22" s="18">
+        <v>1.876182941212497E+22</v>
+      </c>
+      <c r="L22" s="27">
+        <f>L21*4.5</f>
+        <v>9.3809147060624851E+19</v>
+      </c>
+      <c r="M22" s="31">
+        <v>1.8761829412124999E+22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K23" s="18">
+        <v>4.2214116177281179E+22</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" ref="L23:L25" si="3">L22*4.5</f>
+        <v>4.2214116177281181E+20</v>
+      </c>
+    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L24" s="17">
-        <v>20000000</v>
+      <c r="K24" s="18">
+        <v>2.8494528419664797E+23</v>
+      </c>
+      <c r="L24" s="27">
+        <f t="shared" si="3"/>
+        <v>1.8996352279776532E+21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K25" s="18">
+        <f>L25*300</f>
+        <v>2.5645075577698321E+24</v>
+      </c>
+      <c r="L25" s="27">
+        <f t="shared" si="3"/>
+        <v>8.5483585258994396E+21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K27" s="25">
+        <v>2.5645075577698321E+24</v>
+      </c>
+      <c r="L27" s="33">
+        <v>2.43290200817664E+19</v>
       </c>
     </row>
   </sheetData>
@@ -8197,6 +8410,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F29FB3F40B509F4C81E8F7D12DFD5307" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="f9f4daf92be0790af1772c804926017d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c4c4a05b-42eb-4692-9991-1e0a6af8e1a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83bd06d266cbc4cbb03498f7078e3eb3" ns3:_="">
     <xsd:import namespace="c4c4a05b-42eb-4692-9991-1e0a6af8e1a7"/>
@@ -8342,15 +8564,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8358,6 +8571,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E458B993-B688-46EA-9EE9-3A2EDC96B5A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A851570-4C57-4919-9D3E-814765CD9AE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8371,14 +8592,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E458B993-B688-46EA-9EE9-3A2EDC96B5A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
